--- a/Тест-Кейс Конвертер.xlsx
+++ b/Тест-Кейс Конвертер.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>https://docs.google.com/spreadsheets/d/1-g-gCfR2mBTc0PkMwdulBmEPj8gFFSGC74uhSccYAJs/edit?usp=sharing</t>
+    <t>https://docs.google.com/spreadsheets/d/1-g-gCfR2mBTc0PkMwdulBmEPj8gFFSGC74uhSccYAJs/edit#gid=0</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" location="gid=0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId2"/>
